--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cntn1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Cntn1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,10 +546,10 @@
         <v>0.210947</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>3.938751522334444</v>
+        <v>2.679476451495555</v>
       </c>
       <c r="R2">
-        <v>35.44876370101</v>
+        <v>24.11528806346</v>
       </c>
       <c r="S2">
-        <v>0.4883616647765734</v>
+        <v>0.1341289686434296</v>
       </c>
       <c r="T2">
-        <v>0.5237161609491596</v>
+        <v>0.1859001321506378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.210947</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
         <v>0.6433520671159999</v>
@@ -638,10 +638,10 @@
         <v>5.790168604044</v>
       </c>
       <c r="S3">
-        <v>0.07976854715323708</v>
+        <v>0.03220485449264666</v>
       </c>
       <c r="T3">
-        <v>0.08554331818550501</v>
+        <v>0.04463529964202367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,10 +670,10 @@
         <v>0.210947</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>0.8528618852049999</v>
+        <v>1.056394309102</v>
       </c>
       <c r="R4">
-        <v>7.675756966845</v>
+        <v>9.507548781918</v>
       </c>
       <c r="S4">
-        <v>0.1057454494708373</v>
+        <v>0.0528808824132615</v>
       </c>
       <c r="T4">
-        <v>0.1134007945935868</v>
+        <v>0.07329187071438209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>0.210947</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>1.633378934234667</v>
+        <v>1.656370188396</v>
       </c>
       <c r="R5">
-        <v>9.800273605408002</v>
+        <v>9.938221130376</v>
       </c>
       <c r="S5">
-        <v>0.2025209386808572</v>
+        <v>0.08291441596259432</v>
       </c>
       <c r="T5">
-        <v>0.1447881712368271</v>
+        <v>0.07661184127750713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.210947</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3500709860127268</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.446885632088942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>0.9968904496576667</v>
+        <v>0.9577282094233334</v>
       </c>
       <c r="R6">
-        <v>8.972014046919</v>
+        <v>8.619553884810001</v>
       </c>
       <c r="S6">
-        <v>0.1236033999184949</v>
+        <v>0.04794186450079475</v>
       </c>
       <c r="T6">
-        <v>0.1325515550349214</v>
+        <v>0.06644648830439134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1305455</v>
+      </c>
+      <c r="H7">
+        <v>0.261091</v>
+      </c>
+      <c r="I7">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="J7">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>38.10639333333333</v>
+      </c>
+      <c r="N7">
+        <v>114.31918</v>
+      </c>
+      <c r="O7">
+        <v>0.3831479157160237</v>
+      </c>
+      <c r="P7">
+        <v>0.4159903984418967</v>
+      </c>
+      <c r="Q7">
+        <v>4.974618170896666</v>
+      </c>
+      <c r="R7">
+        <v>29.84770902538</v>
+      </c>
+      <c r="S7">
+        <v>0.2490189470725942</v>
+      </c>
+      <c r="T7">
+        <v>0.2300902662912589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.1305455</v>
+      </c>
+      <c r="H8">
+        <v>0.261091</v>
+      </c>
+      <c r="I8">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="J8">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.149483999999999</v>
+      </c>
+      <c r="N8">
+        <v>27.448452</v>
+      </c>
+      <c r="O8">
+        <v>0.09199521176963764</v>
+      </c>
+      <c r="P8">
+        <v>0.09988081163714851</v>
+      </c>
+      <c r="Q8">
+        <v>1.194423963522</v>
+      </c>
+      <c r="R8">
+        <v>7.166543781132001</v>
+      </c>
+      <c r="S8">
+        <v>0.05979035727699098</v>
+      </c>
+      <c r="T8">
+        <v>0.05524551199512485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.1305455</v>
+      </c>
+      <c r="H9">
+        <v>0.261091</v>
+      </c>
+      <c r="I9">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="J9">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.023598</v>
+      </c>
+      <c r="N9">
+        <v>45.070794</v>
+      </c>
+      <c r="O9">
+        <v>0.1510575983904562</v>
+      </c>
+      <c r="P9">
+        <v>0.1640058785774412</v>
+      </c>
+      <c r="Q9">
+        <v>1.961263112709</v>
+      </c>
+      <c r="R9">
+        <v>11.767578676254</v>
+      </c>
+      <c r="S9">
+        <v>0.0981767159771947</v>
+      </c>
+      <c r="T9">
+        <v>0.09071400786305914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1305455</v>
+      </c>
+      <c r="H10">
+        <v>0.261091</v>
+      </c>
+      <c r="I10">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="J10">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.556204</v>
+      </c>
+      <c r="N10">
+        <v>47.112408</v>
+      </c>
+      <c r="O10">
+        <v>0.236850294013169</v>
+      </c>
+      <c r="P10">
+        <v>0.1714350065796238</v>
+      </c>
+      <c r="Q10">
+        <v>3.075156429282</v>
+      </c>
+      <c r="R10">
+        <v>12.300625717128</v>
+      </c>
+      <c r="S10">
+        <v>0.1539358780505747</v>
+      </c>
+      <c r="T10">
+        <v>0.09482316530211672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1305455</v>
+      </c>
+      <c r="H11">
+        <v>0.261091</v>
+      </c>
+      <c r="I11">
+        <v>0.6499290139872732</v>
+      </c>
+      <c r="J11">
+        <v>0.5531143679110581</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.62041</v>
+      </c>
+      <c r="N11">
+        <v>40.86123000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.1369489801107134</v>
+      </c>
+      <c r="P11">
+        <v>0.1486879047638899</v>
+      </c>
+      <c r="Q11">
+        <v>1.778083233655</v>
+      </c>
+      <c r="R11">
+        <v>10.66849940193</v>
+      </c>
+      <c r="S11">
+        <v>0.08900711560991864</v>
+      </c>
+      <c r="T11">
+        <v>0.08224141645949855</v>
       </c>
     </row>
   </sheetData>
